--- a/eclipse-workspace/ClaimsPro/src/main/java/com/claimspro/testdata/initiate_claim_testdata.xlsx
+++ b/eclipse-workspace/ClaimsPro/src/main/java/com/claimspro/testdata/initiate_claim_testdata.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0493773A-51EF-4D10-A7B2-51659A490738}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A7177B75-1DB9-4D7B-BD63-0F97E8C50885}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="3390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15465" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="testdata" sheetId="1" r:id="rId1"/>
+    <sheet name="initiateClaimData" sheetId="1" r:id="rId1"/>
+    <sheet name="reserveData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>DOC</t>
   </si>
@@ -63,6 +64,42 @@
   </si>
   <si>
     <t>02-22-2019</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>ReserveType</t>
+  </si>
+  <si>
+    <t>LossType</t>
+  </si>
+  <si>
+    <t>ReserveAmount</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Bodily Injury</t>
+  </si>
+  <si>
+    <t>Valuation Accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Expense </t>
+  </si>
+  <si>
+    <t>Collsion</t>
+  </si>
+  <si>
+    <t>Salvage Recovery</t>
   </si>
 </sst>
 </file>
@@ -388,7 +425,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,4 +494,93 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8970968-6AE9-41F8-B1E4-61E430583D17}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>